--- a/artfynd/A 56959-2025 artfynd.xlsx
+++ b/artfynd/A 56959-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130003491</v>
       </c>
       <c r="B2" t="n">
-        <v>57823</v>
+        <v>57881</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>130333758</v>
       </c>
       <c r="B3" t="n">
-        <v>57861</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>130333947</v>
       </c>
       <c r="B4" t="n">
-        <v>57861</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
